--- a/medicine/Enfance/Pierre_Blanchard/Pierre_Blanchard.xlsx
+++ b/medicine/Enfance/Pierre_Blanchard/Pierre_Blanchard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Blanchard (Dammartin, 20 décembre 1772[1] - Angers, 1856) est un écrivain et éditeur français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Blanchard (Dammartin, 20 décembre 1772 - Angers, 1856) est un écrivain et éditeur français. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Libraire spécialisé dans l'éducation (1809-1811), il se fait connaître sous le nom de Platon Blanchard ou de P. B** au début de la Révolution française. En 1800-1801, il ouvre une institution pour jeunes gens à Paris et s'établit libraire vers 1809 pour commercialiser ses propres ouvrages d'éducation. Le 30 novembre 1811, il s'associe à Alexis Eymery pour créer l'entreprise P. Blanchard et A. Eymery, association qui cesse le 4 mai 1812. Alexis Eymery conserve alors l'adresse de la rue Mazarine. 
 Breveté libraire le 1er octobre 1812, Pierre Blanchard se retire et Pierre-Charles Lehuby est breveté libraire en sa succession le 17 novembre 1834. 
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Catéchisme de la nature ou Religion et morale naturelles, 1793
 Félix et Pauline, ou le Tombeau au pied du Mont-Jura, 1793
